--- a/data/extraction_mm_251105.xlsx
+++ b/data/extraction_mm_251105.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualberta-my.sharepoint.com/personal/ortegara_ualberta_ca/Documents/Music_project/Music_meta_book/Music_on_anxiety_depression_meta_analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff2fba3d3057d582/Github repos/Music_on_anxiety_depression_meta_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6529" documentId="8_{069A1E92-6A17-4742-A179-A8BD204F6CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B1D683D-27E0-45F8-951D-EAD6A95779CF}"/>
+  <xr:revisionPtr revIDLastSave="6531" documentId="8_{069A1E92-6A17-4742-A179-A8BD204F6CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF4DDCDB-5605-449A-AA43-6FAB18C520D4}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{63CF1AEA-BDD1-4AC6-B12A-ECAC64971320}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{63CF1AEA-BDD1-4AC6-B12A-ECAC64971320}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -4311,6 +4311,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B29474E8-A2DE-45C5-8D0A-61E0E8DC691E}" name="Table2" displayName="Table2" ref="A1:A3" totalsRowShown="0">
   <autoFilter ref="A1:A3" xr:uid="{B29474E8-A2DE-45C5-8D0A-61E0E8DC691E}"/>
@@ -4722,17 +4726,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0330CC-5B5E-48C6-B976-720D2D54FDFE}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.90625" customWidth="1"/>
-    <col min="2" max="2" width="102.54296875" customWidth="1"/>
+    <col min="1" max="1" width="50.88671875" customWidth="1"/>
+    <col min="2" max="2" width="102.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4740,13 +4744,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="41"/>
     </row>
-    <row r="3" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4762,7 +4766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4770,7 +4774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -4794,7 +4798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -4802,7 +4806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -4810,7 +4814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4818,7 +4822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -4826,13 +4830,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="41"/>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -4840,7 +4844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -4848,7 +4852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -4864,7 +4868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -4872,7 +4876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -4888,7 +4892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -4896,7 +4900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>40</v>
       </c>
@@ -4904,19 +4908,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -4924,7 +4928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
         <v>1118</v>
       </c>
@@ -4932,7 +4936,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
@@ -4940,7 +4944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
@@ -4948,7 +4952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
@@ -4956,7 +4960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -4972,7 +4976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
         <v>56</v>
       </c>
@@ -4980,17 +4984,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44"/>
       <c r="B34" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -5014,7 +5018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>65</v>
       </c>
@@ -5022,7 +5026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
@@ -5030,13 +5034,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="41"/>
     </row>
-    <row r="41" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>70</v>
       </c>
@@ -5044,7 +5048,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>72</v>
       </c>
@@ -5052,7 +5056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>74</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>76</v>
       </c>
@@ -5068,7 +5072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>78</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>80</v>
       </c>
@@ -5084,7 +5088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>82</v>
       </c>
@@ -5092,7 +5096,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>84</v>
       </c>
@@ -5100,7 +5104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="37" t="s">
         <v>1105</v>
       </c>
@@ -5108,7 +5112,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>86</v>
       </c>
@@ -5116,7 +5120,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>88</v>
       </c>
@@ -5124,7 +5128,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>89</v>
       </c>
@@ -5132,7 +5136,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="27" t="s">
         <v>1093</v>
       </c>
@@ -5140,7 +5144,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>91</v>
       </c>
@@ -5148,7 +5152,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>93</v>
       </c>
@@ -5156,7 +5160,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>1085</v>
       </c>
@@ -5164,7 +5168,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>95</v>
       </c>
@@ -5172,7 +5176,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>97</v>
       </c>
@@ -5180,7 +5184,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>99</v>
       </c>
@@ -5188,7 +5192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>101</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="27" t="s">
         <v>1087</v>
       </c>
@@ -5204,13 +5208,13 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="40" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="41"/>
     </row>
-    <row r="63" spans="1:2" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>103</v>
       </c>
@@ -5218,7 +5222,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>105</v>
       </c>
@@ -5226,7 +5230,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>107</v>
       </c>
@@ -5234,7 +5238,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>109</v>
       </c>
@@ -5242,7 +5246,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>111</v>
       </c>
@@ -5250,7 +5254,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>113</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>115</v>
       </c>
@@ -5266,7 +5270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="39" t="s">
         <v>1122</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>117</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>119</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>121</v>
       </c>
@@ -5301,7 +5305,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>15</v>
       </c>
@@ -5309,7 +5313,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>124</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>126</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>128</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>130</v>
       </c>
@@ -5341,7 +5345,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>132</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>134</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>136</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>138</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>140</v>
       </c>
@@ -5381,7 +5385,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>142</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>144</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>146</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>148</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>150</v>
       </c>
@@ -5421,13 +5425,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="40" t="s">
         <v>152</v>
       </c>
       <c r="B89" s="41"/>
     </row>
-    <row r="90" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>153</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>155</v>
       </c>
@@ -5443,7 +5447,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>157</v>
       </c>
@@ -5451,7 +5455,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>159</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>161</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>163</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>165</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>167</v>
       </c>
@@ -5491,7 +5495,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>169</v>
       </c>
@@ -5499,7 +5503,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="32" t="s">
         <v>1089</v>
       </c>
@@ -5507,7 +5511,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="38" t="s">
         <v>1123</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B104" s="36"/>
     </row>
   </sheetData>
@@ -5537,102 +5541,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97D0492-E436-439A-88B9-D72064907446}">
   <dimension ref="A1:CL301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" customWidth="1"/>
-    <col min="5" max="5" width="39.453125" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" customWidth="1"/>
-    <col min="14" max="14" width="7.7265625" customWidth="1"/>
-    <col min="15" max="15" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" customWidth="1"/>
-    <col min="20" max="20" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.81640625" customWidth="1"/>
-    <col min="22" max="22" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.1796875" customWidth="1"/>
-    <col min="26" max="26" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.77734375" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.21875" customWidth="1"/>
+    <col min="26" max="26" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="35" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="29" customWidth="1"/>
-    <col min="42" max="42" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="39.7265625" customWidth="1"/>
-    <col min="45" max="45" width="40.1796875" customWidth="1"/>
-    <col min="46" max="46" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.54296875" customWidth="1"/>
-    <col min="48" max="48" width="20.90625" style="30" customWidth="1"/>
-    <col min="49" max="49" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.90625" customWidth="1"/>
-    <col min="51" max="51" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.7265625" customWidth="1"/>
-    <col min="54" max="54" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29.453125" customWidth="1"/>
+    <col min="42" max="42" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="39.77734375" customWidth="1"/>
+    <col min="45" max="45" width="40.21875" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.5546875" customWidth="1"/>
+    <col min="48" max="48" width="20.88671875" style="30" customWidth="1"/>
+    <col min="49" max="49" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.88671875" customWidth="1"/>
+    <col min="51" max="51" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.77734375" customWidth="1"/>
+    <col min="54" max="54" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="29.44140625" customWidth="1"/>
     <col min="56" max="56" width="17" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.81640625" customWidth="1"/>
-    <col min="62" max="62" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="29.81640625" customWidth="1"/>
-    <col min="64" max="64" width="24.6328125" customWidth="1"/>
-    <col min="65" max="65" width="23.26953125" customWidth="1"/>
-    <col min="66" max="66" width="42.453125" customWidth="1"/>
-    <col min="67" max="67" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="28.26953125" customWidth="1"/>
-    <col min="69" max="69" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17.6328125" customWidth="1"/>
-    <col min="89" max="89" width="20.6328125" style="30"/>
+    <col min="57" max="57" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.77734375" customWidth="1"/>
+    <col min="62" max="62" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="29.77734375" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" customWidth="1"/>
+    <col min="65" max="65" width="23.21875" customWidth="1"/>
+    <col min="66" max="66" width="42.44140625" customWidth="1"/>
+    <col min="67" max="67" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="28.21875" customWidth="1"/>
+    <col min="69" max="69" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.6640625" customWidth="1"/>
+    <col min="89" max="89" width="20.6640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:90" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>327</v>
       </c>
@@ -6537,7 +6541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>329</v>
       </c>
@@ -6963,7 +6967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>330</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -7386,7 +7390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -7599,7 +7603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>358</v>
       </c>
@@ -7812,7 +7816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>359</v>
       </c>
@@ -8022,7 +8026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>379</v>
       </c>
@@ -8229,7 +8233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>380</v>
       </c>
@@ -8436,7 +8440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>381</v>
       </c>
@@ -8643,7 +8647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>382</v>
       </c>
@@ -8856,7 +8860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>383</v>
       </c>
@@ -9066,7 +9070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>384</v>
       </c>
@@ -9276,7 +9280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>385</v>
       </c>
@@ -9486,7 +9490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>386</v>
       </c>
@@ -9699,7 +9703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>399</v>
       </c>
@@ -9912,7 +9916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>400</v>
       </c>
@@ -10119,7 +10123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>401</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -10536,7 +10540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>403</v>
       </c>
@@ -10746,7 +10750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>424</v>
       </c>
@@ -10947,7 +10951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>425</v>
       </c>
@@ -11148,7 +11152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>426</v>
       </c>
@@ -11349,7 +11353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>427</v>
       </c>
@@ -11550,7 +11554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>428</v>
       </c>
@@ -11766,7 +11770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>429</v>
       </c>
@@ -11982,7 +11986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>430</v>
       </c>
@@ -12198,7 +12202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>431</v>
       </c>
@@ -12414,7 +12418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>584</v>
       </c>
@@ -12621,7 +12625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>585</v>
       </c>
@@ -12825,7 +12829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -13029,7 +13033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>587</v>
       </c>
@@ -13233,7 +13237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>588</v>
       </c>
@@ -13440,7 +13444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>589</v>
       </c>
@@ -13644,7 +13648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>590</v>
       </c>
@@ -13848,7 +13852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>591</v>
       </c>
@@ -14052,7 +14056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>592</v>
       </c>
@@ -14259,7 +14263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>593</v>
       </c>
@@ -14466,7 +14470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>594</v>
       </c>
@@ -14673,7 +14677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>595</v>
       </c>
@@ -14880,7 +14884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>596</v>
       </c>
@@ -15087,7 +15091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>597</v>
       </c>
@@ -15294,7 +15298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>598</v>
       </c>
@@ -15501,7 +15505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>599</v>
       </c>
@@ -15708,7 +15712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>600</v>
       </c>
@@ -15915,7 +15919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>601</v>
       </c>
@@ -16122,7 +16126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>602</v>
       </c>
@@ -16329,7 +16333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>603</v>
       </c>
@@ -16536,7 +16540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>604</v>
       </c>
@@ -16743,7 +16747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>605</v>
       </c>
@@ -16950,7 +16954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>606</v>
       </c>
@@ -17157,7 +17161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>607</v>
       </c>
@@ -17364,7 +17368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>608</v>
       </c>
@@ -17571,7 +17575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>609</v>
       </c>
@@ -17778,7 +17782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>610</v>
       </c>
@@ -17997,7 +18001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>611</v>
       </c>
@@ -18216,7 +18220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>612</v>
       </c>
@@ -18423,7 +18427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>613</v>
       </c>
@@ -18630,7 +18634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>614</v>
       </c>
@@ -18837,7 +18841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>615</v>
       </c>
@@ -19059,7 +19063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>616</v>
       </c>
@@ -19281,7 +19285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>617</v>
       </c>
@@ -19503,7 +19507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>618</v>
       </c>
@@ -19713,7 +19717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>619</v>
       </c>
@@ -19923,7 +19927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>620</v>
       </c>
@@ -20133,7 +20137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>621</v>
       </c>
@@ -20343,7 +20347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>622</v>
       </c>
@@ -20568,7 +20572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>623</v>
       </c>
@@ -20793,7 +20797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>624</v>
       </c>
@@ -21018,7 +21022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>625</v>
       </c>
@@ -21243,7 +21247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>626</v>
       </c>
@@ -21447,7 +21451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>627</v>
       </c>
@@ -21651,7 +21655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>628</v>
       </c>
@@ -21867,7 +21871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>629</v>
       </c>
@@ -22083,7 +22087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>630</v>
       </c>
@@ -22284,7 +22288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>631</v>
       </c>
@@ -22497,7 +22501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>632</v>
       </c>
@@ -22698,7 +22702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>633</v>
       </c>
@@ -22914,7 +22918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>634</v>
       </c>
@@ -23118,7 +23122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>635</v>
       </c>
@@ -23331,7 +23335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>636</v>
       </c>
@@ -23532,7 +23536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>637</v>
       </c>
@@ -23745,7 +23749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>638</v>
       </c>
@@ -23949,7 +23953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>639</v>
       </c>
@@ -24153,7 +24157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>640</v>
       </c>
@@ -24357,7 +24361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>641</v>
       </c>
@@ -24561,7 +24565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>642</v>
       </c>
@@ -24765,7 +24769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>643</v>
       </c>
@@ -24969,7 +24973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>644</v>
       </c>
@@ -25173,7 +25177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>645</v>
       </c>
@@ -25377,7 +25381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>646</v>
       </c>
@@ -25581,7 +25585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>647</v>
       </c>
@@ -25785,7 +25789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>648</v>
       </c>
@@ -25989,7 +25993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>649</v>
       </c>
@@ -26193,7 +26197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>650</v>
       </c>
@@ -26397,7 +26401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>651</v>
       </c>
@@ -26601,7 +26605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>652</v>
       </c>
@@ -26805,7 +26809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>653</v>
       </c>
@@ -27009,7 +27013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>654</v>
       </c>
@@ -27213,7 +27217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>655</v>
       </c>
@@ -27417,7 +27421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>656</v>
       </c>
@@ -27621,7 +27625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>657</v>
       </c>
@@ -27825,7 +27829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>658</v>
       </c>
@@ -28029,7 +28033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>659</v>
       </c>
@@ -28233,7 +28237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>660</v>
       </c>
@@ -28437,7 +28441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>661</v>
       </c>
@@ -28641,7 +28645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>662</v>
       </c>
@@ -28845,7 +28849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>663</v>
       </c>
@@ -29049,7 +29053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>664</v>
       </c>
@@ -29253,7 +29257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>665</v>
       </c>
@@ -29457,7 +29461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>666</v>
       </c>
@@ -29661,7 +29665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>667</v>
       </c>
@@ -29865,7 +29869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>668</v>
       </c>
@@ -30069,7 +30073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>669</v>
       </c>
@@ -30273,7 +30277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>670</v>
       </c>
@@ -30477,7 +30481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>671</v>
       </c>
@@ -30681,7 +30685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>672</v>
       </c>
@@ -30885,7 +30889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>673</v>
       </c>
@@ -31089,7 +31093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>674</v>
       </c>
@@ -31293,7 +31297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>675</v>
       </c>
@@ -31497,7 +31501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>676</v>
       </c>
@@ -31701,7 +31705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>677</v>
       </c>
@@ -31905,7 +31909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>678</v>
       </c>
@@ -32118,7 +32122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>679</v>
       </c>
@@ -32331,7 +32335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>680</v>
       </c>
@@ -32541,7 +32545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>681</v>
       </c>
@@ -32754,7 +32758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>682</v>
       </c>
@@ -32964,7 +32968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>683</v>
       </c>
@@ -33174,7 +33178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>684</v>
       </c>
@@ -33384,7 +33388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>685</v>
       </c>
@@ -33588,7 +33592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>702</v>
       </c>
@@ -33792,7 +33796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>703</v>
       </c>
@@ -33996,7 +34000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>704</v>
       </c>
@@ -34200,7 +34204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>705</v>
       </c>
@@ -34404,7 +34408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>706</v>
       </c>
@@ -34608,7 +34612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>707</v>
       </c>
@@ -34812,7 +34816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>708</v>
       </c>
@@ -35016,7 +35020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>709</v>
       </c>
@@ -35220,7 +35224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>736</v>
       </c>
@@ -35442,7 +35446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>737</v>
       </c>
@@ -35642,7 +35646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>738</v>
       </c>
@@ -35860,7 +35864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>739</v>
       </c>
@@ -36060,7 +36064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>740</v>
       </c>
@@ -36278,7 +36282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>741</v>
       </c>
@@ -36478,7 +36482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>742</v>
       </c>
@@ -36696,7 +36700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>743</v>
       </c>
@@ -36896,7 +36900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>744</v>
       </c>
@@ -37114,7 +37118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>745</v>
       </c>
@@ -37314,7 +37318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>746</v>
       </c>
@@ -37532,7 +37536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>747</v>
       </c>
@@ -37732,7 +37736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>748</v>
       </c>
@@ -37950,7 +37954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>772</v>
       </c>
@@ -38151,7 +38155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>773</v>
       </c>
@@ -38352,7 +38356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>774</v>
       </c>
@@ -38550,7 +38554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>775</v>
       </c>
@@ -38748,7 +38752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>776</v>
       </c>
@@ -38946,7 +38950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>777</v>
       </c>
@@ -39144,7 +39148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>778</v>
       </c>
@@ -39342,7 +39346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>779</v>
       </c>
@@ -39540,7 +39544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>780</v>
       </c>
@@ -39738,7 +39742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>781</v>
       </c>
@@ -39936,7 +39940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>782</v>
       </c>
@@ -40134,7 +40138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>783</v>
       </c>
@@ -40332,7 +40336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>784</v>
       </c>
@@ -40530,7 +40534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>785</v>
       </c>
@@ -40728,7 +40732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>786</v>
       </c>
@@ -40926,7 +40930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>787</v>
       </c>
@@ -41124,7 +41128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>806</v>
       </c>
@@ -41324,7 +41328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>807</v>
       </c>
@@ -41524,7 +41528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>808</v>
       </c>
@@ -41724,7 +41728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>809</v>
       </c>
@@ -41924,7 +41928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>810</v>
       </c>
@@ -42124,7 +42128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>811</v>
       </c>
@@ -42324,7 +42328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>812</v>
       </c>
@@ -42524,7 +42528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>813</v>
       </c>
@@ -42724,7 +42728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>814</v>
       </c>
@@ -42924,7 +42928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>815</v>
       </c>
@@ -43124,7 +43128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>816</v>
       </c>
@@ -43324,7 +43328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>817</v>
       </c>
@@ -43524,7 +43528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>818</v>
       </c>
@@ -43724,7 +43728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>819</v>
       </c>
@@ -43924,7 +43928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>820</v>
       </c>
@@ -44124,7 +44128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>821</v>
       </c>
@@ -44324,7 +44328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>822</v>
       </c>
@@ -44531,7 +44535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>823</v>
       </c>
@@ -44738,7 +44742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>848</v>
       </c>
@@ -44942,7 +44946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>849</v>
       </c>
@@ -45146,7 +45150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>850</v>
       </c>
@@ -45350,7 +45354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>851</v>
       </c>
@@ -45554,7 +45558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>852</v>
       </c>
@@ -45758,7 +45762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>853</v>
       </c>
@@ -45962,7 +45966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>854</v>
       </c>
@@ -46166,7 +46170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>855</v>
       </c>
@@ -46370,7 +46374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>856</v>
       </c>
@@ -46574,7 +46578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>857</v>
       </c>
@@ -46778,7 +46782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>858</v>
       </c>
@@ -46982,7 +46986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>859</v>
       </c>
@@ -47186,7 +47190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>860</v>
       </c>
@@ -47390,7 +47394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>861</v>
       </c>
@@ -47594,7 +47598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>862</v>
       </c>
@@ -47798,7 +47802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>863</v>
       </c>
@@ -48002,7 +48006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>864</v>
       </c>
@@ -48206,7 +48210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>865</v>
       </c>
@@ -48410,7 +48414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>883</v>
       </c>
@@ -48625,7 +48629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>884</v>
       </c>
@@ -48840,7 +48844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>885</v>
       </c>
@@ -49055,7 +49059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>886</v>
       </c>
@@ -49270,7 +49274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>887</v>
       </c>
@@ -49485,7 +49489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>888</v>
       </c>
@@ -49700,7 +49704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>889</v>
       </c>
@@ -49915,7 +49919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>890</v>
       </c>
@@ -50130,7 +50134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>891</v>
       </c>
@@ -50345,7 +50349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>892</v>
       </c>
@@ -50560,7 +50564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>893</v>
       </c>
@@ -50775,7 +50779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>894</v>
       </c>
@@ -50990,7 +50994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>895</v>
       </c>
@@ -51205,7 +51209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>896</v>
       </c>
@@ -51420,7 +51424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>897</v>
       </c>
@@ -51635,7 +51639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>898</v>
       </c>
@@ -51850,7 +51854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>915</v>
       </c>
@@ -52057,7 +52061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>916</v>
       </c>
@@ -52264,7 +52268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>946</v>
       </c>
@@ -52462,7 +52466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>947</v>
       </c>
@@ -52660,7 +52664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>948</v>
       </c>
@@ -52858,7 +52862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>949</v>
       </c>
@@ -53056,7 +53060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>950</v>
       </c>
@@ -53254,7 +53258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>951</v>
       </c>
@@ -53452,7 +53456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>952</v>
       </c>
@@ -53650,7 +53654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>953</v>
       </c>
@@ -53848,7 +53852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>954</v>
       </c>
@@ -54046,7 +54050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>955</v>
       </c>
@@ -54244,7 +54248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>956</v>
       </c>
@@ -54445,7 +54449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>957</v>
       </c>
@@ -54646,7 +54650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>958</v>
       </c>
@@ -54847,7 +54851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>959</v>
       </c>
@@ -55048,7 +55052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>969</v>
       </c>
@@ -55249,7 +55253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>970</v>
       </c>
@@ -55450,7 +55454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>971</v>
       </c>
@@ -55651,7 +55655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>976</v>
       </c>
@@ -55852,7 +55856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>977</v>
       </c>
@@ -56053,7 +56057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>978</v>
       </c>
@@ -56254,7 +56258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>979</v>
       </c>
@@ -56455,7 +56459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1027</v>
       </c>
@@ -56653,7 +56657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1028</v>
       </c>
@@ -56854,7 +56858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1029</v>
       </c>
@@ -57052,7 +57056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1030</v>
       </c>
@@ -57250,7 +57254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1031</v>
       </c>
@@ -57448,7 +57452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1032</v>
       </c>
@@ -57646,7 +57650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1033</v>
       </c>
@@ -57844,7 +57848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:90" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1034</v>
       </c>
@@ -58042,7 +58046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1035</v>
       </c>
@@ -58254,7 +58258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1036</v>
       </c>
@@ -58466,7 +58470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1037</v>
       </c>
@@ -58678,7 +58682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1038</v>
       </c>
@@ -58890,7 +58894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1039</v>
       </c>
@@ -59091,7 +59095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1040</v>
       </c>
@@ -59295,7 +59299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1041</v>
       </c>
@@ -59496,7 +59500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1042</v>
       </c>
@@ -59697,7 +59701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1043</v>
       </c>
@@ -59898,7 +59902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1044</v>
       </c>
@@ -60099,7 +60103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1045</v>
       </c>
@@ -60300,7 +60304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:90" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1046</v>
       </c>
@@ -60501,7 +60505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1047</v>
       </c>
@@ -60710,7 +60714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1048</v>
       </c>
@@ -60922,7 +60926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1049</v>
       </c>
@@ -61131,7 +61135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1050</v>
       </c>
@@ -61340,7 +61344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1051</v>
       </c>
@@ -61549,7 +61553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1052</v>
       </c>
@@ -61758,7 +61762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1053</v>
       </c>
@@ -61967,7 +61971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1054</v>
       </c>
@@ -62176,7 +62180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1055</v>
       </c>
@@ -62385,7 +62389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1056</v>
       </c>
@@ -62594,7 +62598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1057</v>
       </c>
@@ -62806,7 +62810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1058</v>
       </c>
@@ -63015,7 +63019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1059</v>
       </c>
@@ -63227,7 +63231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1060</v>
       </c>
@@ -63436,7 +63440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1061</v>
       </c>
@@ -63645,7 +63649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1062</v>
       </c>
@@ -63854,7 +63858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1063</v>
       </c>
@@ -64063,7 +64067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1064</v>
       </c>
@@ -64272,7 +64276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1065</v>
       </c>
@@ -64481,7 +64485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1066</v>
       </c>
@@ -64690,7 +64694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1067</v>
       </c>
@@ -64899,7 +64903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1068</v>
       </c>
@@ -65108,7 +65112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1069</v>
       </c>
@@ -65317,7 +65321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1070</v>
       </c>
@@ -65526,7 +65530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1071</v>
       </c>
@@ -65735,7 +65739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1072</v>
       </c>
@@ -65944,7 +65948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1073</v>
       </c>
@@ -66153,7 +66157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1074</v>
       </c>
@@ -66362,7 +66366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1075</v>
       </c>
@@ -66571,7 +66575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1076</v>
       </c>
@@ -66780,7 +66784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1077</v>
       </c>
@@ -66989,7 +66993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1078</v>
       </c>
@@ -67198,7 +67202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1079</v>
       </c>
@@ -67407,7 +67411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1080</v>
       </c>
@@ -67616,7 +67620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:CL300" xr:uid="{D97D0492-E436-439A-88B9-D72064907446}"/>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -67854,13 +67858,13 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.453125" customWidth="1"/>
-    <col min="2" max="2" width="158.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="158.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>1091</v>
       </c>
@@ -67868,7 +67872,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1096</v>
       </c>
@@ -67876,7 +67880,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1098</v>
       </c>
@@ -67884,7 +67888,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1100</v>
       </c>
@@ -67892,7 +67896,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>190</v>
       </c>
@@ -67900,7 +67904,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>192</v>
       </c>
@@ -67921,13 +67925,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>1114</v>
       </c>
@@ -67936,7 +67940,7 @@
       </c>
       <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1106</v>
       </c>
@@ -67944,7 +67948,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1107</v>
       </c>
@@ -67952,7 +67956,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1108</v>
       </c>
@@ -67960,7 +67964,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1109</v>
       </c>
@@ -67981,14 +67985,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -68041,7 +68045,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -68094,7 +68098,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>180</v>
       </c>
@@ -68147,7 +68151,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>185</v>
       </c>
@@ -68185,7 +68189,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>186</v>
       </c>
@@ -68214,7 +68218,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>187</v>
       </c>
@@ -68231,7 +68235,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>188</v>
       </c>
@@ -68245,7 +68249,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>189</v>
       </c>
@@ -68256,7 +68260,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>190</v>
       </c>
@@ -68264,7 +68268,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>191</v>
       </c>
@@ -68272,7 +68276,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>192</v>
       </c>
@@ -68300,13 +68304,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.1796875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="144.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="55.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="144.77734375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>222</v>
       </c>
@@ -68314,7 +68318,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>194</v>
       </c>
@@ -68322,7 +68326,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>196</v>
       </c>
@@ -68330,7 +68334,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>198</v>
       </c>
@@ -68338,7 +68342,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>200</v>
       </c>
@@ -68346,7 +68350,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>202</v>
       </c>
@@ -68354,7 +68358,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>204</v>
       </c>
@@ -68362,7 +68366,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>206</v>
       </c>
@@ -68370,7 +68374,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>208</v>
       </c>
@@ -68378,7 +68382,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>210</v>
       </c>
@@ -68386,7 +68390,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>212</v>
       </c>
@@ -68394,7 +68398,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>214</v>
       </c>
@@ -68402,7 +68406,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>216</v>
       </c>
@@ -68410,7 +68414,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>218</v>
       </c>
@@ -68418,7 +68422,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>220</v>
       </c>
@@ -68442,14 +68446,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="54.453125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>224</v>
       </c>
@@ -68460,7 +68464,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>227</v>
       </c>
@@ -68471,7 +68475,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>230</v>
       </c>
@@ -68482,7 +68486,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>233</v>
       </c>
@@ -68493,7 +68497,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>236</v>
       </c>
@@ -68504,7 +68508,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>408</v>
       </c>
@@ -68512,7 +68516,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>728</v>
       </c>
@@ -68533,15 +68537,15 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="32.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>224</v>
       </c>
@@ -68555,7 +68559,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>239</v>
       </c>
@@ -68569,7 +68573,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>243</v>
       </c>
@@ -68583,7 +68587,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>247</v>
       </c>
@@ -68597,7 +68601,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>250</v>
       </c>
@@ -68611,7 +68615,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>257</v>
       </c>
@@ -68625,7 +68629,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>261</v>
       </c>
@@ -68639,7 +68643,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>265</v>
       </c>
@@ -68653,12 +68657,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>1004</v>
       </c>

--- a/data/extraction_mm_251105.xlsx
+++ b/data/extraction_mm_251105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff2fba3d3057d582/Github repos/Music_on_anxiety_depression_meta_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6534" documentId="8_{069A1E92-6A17-4742-A179-A8BD204F6CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{515247DA-6161-4B44-AFCD-19D80201FDEE}"/>
+  <xr:revisionPtr revIDLastSave="6540" documentId="8_{069A1E92-6A17-4742-A179-A8BD204F6CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF06654-8641-46C5-87B5-3DEC10EE5924}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{63CF1AEA-BDD1-4AC6-B12A-ECAC64971320}"/>
   </bookViews>
@@ -5533,10 +5533,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97D0492-E436-439A-88B9-D72064907446}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CL300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="CI1" sqref="CI1"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5902,7 +5903,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -6325,7 +6326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>327</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>329</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>330</v>
       </c>
@@ -7171,7 +7172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -7597,7 +7598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>358</v>
       </c>
@@ -7810,7 +7811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>359</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>379</v>
       </c>
@@ -8227,7 +8228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>380</v>
       </c>
@@ -8434,7 +8435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>381</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>382</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>383</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>384</v>
       </c>
@@ -9274,7 +9275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>385</v>
       </c>
@@ -9484,7 +9485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>386</v>
       </c>
@@ -9697,7 +9698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>399</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>400</v>
       </c>
@@ -10117,7 +10118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>401</v>
       </c>
@@ -10324,7 +10325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>403</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>607</v>
       </c>
@@ -17569,7 +17570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>608</v>
       </c>
@@ -17776,7 +17777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>609</v>
       </c>
@@ -17995,7 +17996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>610</v>
       </c>
@@ -18214,7 +18215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>611</v>
       </c>
@@ -18421,7 +18422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>612</v>
       </c>
@@ -18628,7 +18629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>613</v>
       </c>
@@ -18835,7 +18836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>614</v>
       </c>
@@ -19057,7 +19058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>615</v>
       </c>
@@ -19279,7 +19280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>616</v>
       </c>
@@ -19501,7 +19502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>617</v>
       </c>
@@ -19711,7 +19712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>618</v>
       </c>
@@ -19921,7 +19922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>619</v>
       </c>
@@ -20131,7 +20132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>620</v>
       </c>
@@ -20341,7 +20342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>621</v>
       </c>
@@ -20566,7 +20567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>622</v>
       </c>
@@ -20791,7 +20792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>623</v>
       </c>
@@ -21016,7 +21017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>624</v>
       </c>
@@ -21241,7 +21242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>625</v>
       </c>
@@ -21445,7 +21446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>626</v>
       </c>
@@ -21649,7 +21650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>627</v>
       </c>
@@ -21865,7 +21866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>628</v>
       </c>
@@ -22081,7 +22082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>629</v>
       </c>
@@ -22282,7 +22283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>630</v>
       </c>
@@ -22495,7 +22496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>631</v>
       </c>
@@ -22696,7 +22697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>632</v>
       </c>
@@ -22912,7 +22913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>633</v>
       </c>
@@ -23116,7 +23117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>634</v>
       </c>
@@ -23329,7 +23330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>635</v>
       </c>
@@ -23530,7 +23531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>636</v>
       </c>
@@ -31903,7 +31904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>677</v>
       </c>
@@ -32116,7 +32117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>678</v>
       </c>
@@ -32329,7 +32330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>679</v>
       </c>
@@ -32539,7 +32540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>680</v>
       </c>
@@ -32752,7 +32753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>681</v>
       </c>
@@ -32962,7 +32963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>682</v>
       </c>
@@ -35008,7 +35009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>734</v>
       </c>
@@ -35230,7 +35231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>735</v>
       </c>
@@ -35430,7 +35431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>736</v>
       </c>
@@ -35648,7 +35649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>737</v>
       </c>
@@ -35848,7 +35849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>738</v>
       </c>
@@ -36066,7 +36067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>739</v>
       </c>
@@ -36266,7 +36267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>740</v>
       </c>
@@ -36484,7 +36485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>741</v>
       </c>
@@ -36684,7 +36685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>742</v>
       </c>
@@ -36902,7 +36903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>743</v>
       </c>
@@ -37102,7 +37103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>744</v>
       </c>
@@ -37320,7 +37321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>745</v>
       </c>
@@ -37520,7 +37521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>746</v>
       </c>
@@ -40912,7 +40913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>804</v>
       </c>
@@ -41112,7 +41113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>805</v>
       </c>
@@ -41312,7 +41313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>806</v>
       </c>
@@ -41512,7 +41513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>807</v>
       </c>
@@ -41712,7 +41713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>808</v>
       </c>
@@ -41912,7 +41913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>809</v>
       </c>
@@ -42112,7 +42113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>810</v>
       </c>
@@ -42312,7 +42313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>811</v>
       </c>
@@ -42512,7 +42513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>812</v>
       </c>
@@ -42712,7 +42713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>813</v>
       </c>
@@ -42912,7 +42913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>814</v>
       </c>
@@ -43112,7 +43113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>815</v>
       </c>
@@ -43312,7 +43313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>816</v>
       </c>
@@ -43512,7 +43513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>817</v>
       </c>
@@ -43712,7 +43713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>818</v>
       </c>
@@ -43912,7 +43913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>819</v>
       </c>
@@ -44112,7 +44113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>820</v>
       </c>
@@ -44319,7 +44320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>821</v>
       </c>
@@ -44526,7 +44527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>846</v>
       </c>
@@ -44730,7 +44731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>847</v>
       </c>
@@ -44934,7 +44935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>848</v>
       </c>
@@ -45138,7 +45139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>849</v>
       </c>
@@ -45342,7 +45343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>850</v>
       </c>
@@ -45546,7 +45547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>851</v>
       </c>
@@ -45750,7 +45751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>852</v>
       </c>
@@ -45954,7 +45955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>853</v>
       </c>
@@ -46158,7 +46159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>854</v>
       </c>
@@ -46362,7 +46363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>855</v>
       </c>
@@ -46566,7 +46567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>856</v>
       </c>
@@ -46770,7 +46771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>857</v>
       </c>
@@ -46974,7 +46975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>858</v>
       </c>
@@ -47178,7 +47179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>859</v>
       </c>
@@ -47382,7 +47383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>860</v>
       </c>
@@ -47586,7 +47587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>861</v>
       </c>
@@ -47790,7 +47791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>862</v>
       </c>
@@ -47994,7 +47995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>863</v>
       </c>
@@ -48198,7 +48199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>881</v>
       </c>
@@ -48413,7 +48414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>882</v>
       </c>
@@ -48628,7 +48629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>883</v>
       </c>
@@ -48843,7 +48844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>884</v>
       </c>
@@ -49058,7 +49059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>885</v>
       </c>
@@ -49273,7 +49274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>886</v>
       </c>
@@ -49488,7 +49489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>887</v>
       </c>
@@ -49703,7 +49704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>888</v>
       </c>
@@ -49918,7 +49919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>889</v>
       </c>
@@ -50133,7 +50134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>890</v>
       </c>
@@ -50348,7 +50349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>891</v>
       </c>
@@ -50563,7 +50564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>892</v>
       </c>
@@ -50778,7 +50779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>893</v>
       </c>
@@ -50993,7 +50994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>894</v>
       </c>
@@ -51208,7 +51209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>895</v>
       </c>
@@ -51423,7 +51424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>896</v>
       </c>
@@ -51638,7 +51639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>913</v>
       </c>
@@ -51845,7 +51846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>914</v>
       </c>
@@ -52052,7 +52053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>944</v>
       </c>
@@ -52250,7 +52251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>945</v>
       </c>
@@ -52448,7 +52449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>946</v>
       </c>
@@ -52646,7 +52647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>947</v>
       </c>
@@ -52844,7 +52845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>948</v>
       </c>
@@ -53042,7 +53043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>949</v>
       </c>
@@ -53240,7 +53241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>950</v>
       </c>
@@ -53438,7 +53439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>951</v>
       </c>
@@ -53636,7 +53637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>952</v>
       </c>
@@ -53834,7 +53835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>953</v>
       </c>
@@ -54032,7 +54033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>954</v>
       </c>
@@ -54233,7 +54234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>955</v>
       </c>
@@ -54434,7 +54435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>956</v>
       </c>
@@ -54635,7 +54636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>957</v>
       </c>
@@ -54836,7 +54837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>967</v>
       </c>
@@ -55037,7 +55038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>968</v>
       </c>
@@ -55238,7 +55239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>969</v>
       </c>
@@ -55439,7 +55440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>974</v>
       </c>
@@ -55640,7 +55641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>975</v>
       </c>
@@ -55841,7 +55842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>976</v>
       </c>
@@ -56042,7 +56043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>977</v>
       </c>
@@ -67406,6 +67407,13 @@
     </row>
     <row r="300" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <autoFilter ref="A1:CL299" xr:uid="{D97D0492-E436-439A-88B9-D72064907446}">
+    <filterColumn colId="40">
+      <filters>
+        <filter val="Acute"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/extraction_mm_251105.xlsx
+++ b/data/extraction_mm_251105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff2fba3d3057d582/Github repos/Music_on_anxiety_depression_meta_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6540" documentId="8_{069A1E92-6A17-4742-A179-A8BD204F6CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF06654-8641-46C5-87B5-3DEC10EE5924}"/>
+  <xr:revisionPtr revIDLastSave="6544" documentId="8_{069A1E92-6A17-4742-A179-A8BD204F6CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E0E0D76-44DB-4405-8654-899DF6839D5E}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{63CF1AEA-BDD1-4AC6-B12A-ECAC64971320}"/>
+    <workbookView minimized="1" xWindow="930" yWindow="2970" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{63CF1AEA-BDD1-4AC6-B12A-ECAC64971320}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -5533,11 +5533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97D0492-E436-439A-88B9-D72064907446}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:CL300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BN1" sqref="BN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5903,7 +5902,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="2" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>327</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -6749,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>329</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>330</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -7598,7 +7597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>358</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>359</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>379</v>
       </c>
@@ -8228,7 +8227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>380</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>381</v>
       </c>
@@ -8642,7 +8641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>382</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>383</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>384</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>385</v>
       </c>
@@ -9485,7 +9484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>386</v>
       </c>
@@ -9698,7 +9697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>399</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>400</v>
       </c>
@@ -10118,7 +10117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>401</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>403</v>
       </c>
@@ -17363,7 +17362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>607</v>
       </c>
@@ -17570,7 +17569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>608</v>
       </c>
@@ -17777,7 +17776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>609</v>
       </c>
@@ -17996,7 +17995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>610</v>
       </c>
@@ -18215,7 +18214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>611</v>
       </c>
@@ -18422,7 +18421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>612</v>
       </c>
@@ -18629,7 +18628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>613</v>
       </c>
@@ -18836,7 +18835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>614</v>
       </c>
@@ -19058,7 +19057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>615</v>
       </c>
@@ -19280,7 +19279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>616</v>
       </c>
@@ -19502,7 +19501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>617</v>
       </c>
@@ -19712,7 +19711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>618</v>
       </c>
@@ -19922,7 +19921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>619</v>
       </c>
@@ -20132,7 +20131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>620</v>
       </c>
@@ -20342,7 +20341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>621</v>
       </c>
@@ -20567,7 +20566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>622</v>
       </c>
@@ -20792,7 +20791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>623</v>
       </c>
@@ -21017,7 +21016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>624</v>
       </c>
@@ -21242,7 +21241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>625</v>
       </c>
@@ -21446,7 +21445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>626</v>
       </c>
@@ -21650,7 +21649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>627</v>
       </c>
@@ -21866,7 +21865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>628</v>
       </c>
@@ -22082,7 +22081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>629</v>
       </c>
@@ -22283,7 +22282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>630</v>
       </c>
@@ -22496,7 +22495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>631</v>
       </c>
@@ -22697,7 +22696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>632</v>
       </c>
@@ -22913,7 +22912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>633</v>
       </c>
@@ -23117,7 +23116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>634</v>
       </c>
@@ -23330,7 +23329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>635</v>
       </c>
@@ -23531,7 +23530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>636</v>
       </c>
@@ -31904,7 +31903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>677</v>
       </c>
@@ -32117,7 +32116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>678</v>
       </c>
@@ -32330,7 +32329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>679</v>
       </c>
@@ -32540,7 +32539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>680</v>
       </c>
@@ -32753,7 +32752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>681</v>
       </c>
@@ -32963,7 +32962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>682</v>
       </c>
@@ -35009,7 +35008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>734</v>
       </c>
@@ -35231,7 +35230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>735</v>
       </c>
@@ -35431,7 +35430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>736</v>
       </c>
@@ -35649,7 +35648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>737</v>
       </c>
@@ -35849,7 +35848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>738</v>
       </c>
@@ -36067,7 +36066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>739</v>
       </c>
@@ -36267,7 +36266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>740</v>
       </c>
@@ -36485,7 +36484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>741</v>
       </c>
@@ -36685,7 +36684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>742</v>
       </c>
@@ -36903,7 +36902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>743</v>
       </c>
@@ -37103,7 +37102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>744</v>
       </c>
@@ -37321,7 +37320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>745</v>
       </c>
@@ -37521,7 +37520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>746</v>
       </c>
@@ -40913,7 +40912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>804</v>
       </c>
@@ -41113,7 +41112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>805</v>
       </c>
@@ -41313,7 +41312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>806</v>
       </c>
@@ -41513,7 +41512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>807</v>
       </c>
@@ -41713,7 +41712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>808</v>
       </c>
@@ -41913,7 +41912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>809</v>
       </c>
@@ -42113,7 +42112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>810</v>
       </c>
@@ -42313,7 +42312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>811</v>
       </c>
@@ -42513,7 +42512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>812</v>
       </c>
@@ -42713,7 +42712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>813</v>
       </c>
@@ -42913,7 +42912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>814</v>
       </c>
@@ -43113,7 +43112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>815</v>
       </c>
@@ -43313,7 +43312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>816</v>
       </c>
@@ -43513,7 +43512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>817</v>
       </c>
@@ -43713,7 +43712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>818</v>
       </c>
@@ -43913,7 +43912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>819</v>
       </c>
@@ -44113,7 +44112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>820</v>
       </c>
@@ -44320,7 +44319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>821</v>
       </c>
@@ -44527,7 +44526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>846</v>
       </c>
@@ -44731,7 +44730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>847</v>
       </c>
@@ -44935,7 +44934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>848</v>
       </c>
@@ -45139,7 +45138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>849</v>
       </c>
@@ -45343,7 +45342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>850</v>
       </c>
@@ -45547,7 +45546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>851</v>
       </c>
@@ -45751,7 +45750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>852</v>
       </c>
@@ -45955,7 +45954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>853</v>
       </c>
@@ -46159,7 +46158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>854</v>
       </c>
@@ -46363,7 +46362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>855</v>
       </c>
@@ -46567,7 +46566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>856</v>
       </c>
@@ -46771,7 +46770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>857</v>
       </c>
@@ -46975,7 +46974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>858</v>
       </c>
@@ -47179,7 +47178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>859</v>
       </c>
@@ -47383,7 +47382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>860</v>
       </c>
@@ -47587,7 +47586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>861</v>
       </c>
@@ -47791,7 +47790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>862</v>
       </c>
@@ -47995,7 +47994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>863</v>
       </c>
@@ -48199,7 +48198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>881</v>
       </c>
@@ -48414,7 +48413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>882</v>
       </c>
@@ -48629,7 +48628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>883</v>
       </c>
@@ -48844,7 +48843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>884</v>
       </c>
@@ -49059,7 +49058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>885</v>
       </c>
@@ -49274,7 +49273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>886</v>
       </c>
@@ -49489,7 +49488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>887</v>
       </c>
@@ -49704,7 +49703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>888</v>
       </c>
@@ -49919,7 +49918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>889</v>
       </c>
@@ -50134,7 +50133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>890</v>
       </c>
@@ -50349,7 +50348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>891</v>
       </c>
@@ -50564,7 +50563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>892</v>
       </c>
@@ -50779,7 +50778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>893</v>
       </c>
@@ -50994,7 +50993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>894</v>
       </c>
@@ -51209,7 +51208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>895</v>
       </c>
@@ -51424,7 +51423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>896</v>
       </c>
@@ -51639,7 +51638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>913</v>
       </c>
@@ -51846,7 +51845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>914</v>
       </c>
@@ -52053,7 +52052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>944</v>
       </c>
@@ -52251,7 +52250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>945</v>
       </c>
@@ -52449,7 +52448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>946</v>
       </c>
@@ -52647,7 +52646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>947</v>
       </c>
@@ -52845,7 +52844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>948</v>
       </c>
@@ -53043,7 +53042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>949</v>
       </c>
@@ -53241,7 +53240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>950</v>
       </c>
@@ -53439,7 +53438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>951</v>
       </c>
@@ -53637,7 +53636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>952</v>
       </c>
@@ -53835,7 +53834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>953</v>
       </c>
@@ -54033,7 +54032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>954</v>
       </c>
@@ -54234,7 +54233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>955</v>
       </c>
@@ -54435,7 +54434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>956</v>
       </c>
@@ -54636,7 +54635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>957</v>
       </c>
@@ -54837,7 +54836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>967</v>
       </c>
@@ -55038,7 +55037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>968</v>
       </c>
@@ -55239,7 +55238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>969</v>
       </c>
@@ -55440,7 +55439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>974</v>
       </c>
@@ -55641,7 +55640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>975</v>
       </c>
@@ -55842,7 +55841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>976</v>
       </c>
@@ -56043,7 +56042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:90" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>977</v>
       </c>
@@ -67407,13 +67406,7 @@
     </row>
     <row r="300" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:CL299" xr:uid="{D97D0492-E436-439A-88B9-D72064907446}">
-    <filterColumn colId="40">
-      <filters>
-        <filter val="Acute"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:CL299" xr:uid="{D97D0492-E436-439A-88B9-D72064907446}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
